--- a/Final_File/Single_Ticker_guru_portfolio.xlsx
+++ b/Final_File/Single_Ticker_guru_portfolio.xlsx
@@ -2291,7 +2291,7 @@
                   <c:v>69.145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.7025</c:v>
+                  <c:v>68.67750000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.9525</c:v>
@@ -2300,7 +2300,7 @@
                   <c:v>54.2625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.3325</c:v>
+                  <c:v>49.5675</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>49.30500000000001</c:v>
@@ -2336,7 +2336,7 @@
                   <c:v>36.0525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.23</c:v>
+                  <c:v>35.3325</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>33.85</c:v>
@@ -2828,7 +2828,7 @@
                   <c:v>133.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.0833333333333</c:v>
+                  <c:v>115.0516666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>96.15666666666668</c:v>
@@ -2846,7 +2846,7 @@
                   <c:v>84.79166666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.43333333333334</c:v>
+                  <c:v>84.72666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>71.33666666666667</c:v>
@@ -2897,7 +2897,7 @@
                   <c:v>46.64333333333334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.44833333333332</c:v>
+                  <c:v>45.55833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,7 +3885,7 @@
         <v>622</v>
       </c>
       <c r="F4" s="3">
-        <v>41.15</v>
+        <v>44.31</v>
       </c>
       <c r="G4" s="3">
         <v>102.27</v>
@@ -3951,7 +3951,7 @@
         <v>123</v>
       </c>
       <c r="AB4" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC4" s="5">
         <v>142</v>
@@ -3966,7 +3966,7 @@
         <v>93</v>
       </c>
       <c r="AG4" s="5">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AH4" s="2">
         <v>143</v>
@@ -3981,22 +3981,22 @@
         <v>123</v>
       </c>
       <c r="AL4" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="AM4" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AN4" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AO4" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AP4" s="2">
         <v>648</v>
       </c>
       <c r="AQ4" s="2">
-        <v>3969</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="5" spans="2:43">
@@ -4207,7 +4207,7 @@
         <v>156</v>
       </c>
       <c r="AB6" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC6" s="5">
         <v>14</v>
@@ -4222,7 +4222,7 @@
         <v>49</v>
       </c>
       <c r="AG6" s="5">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH6" s="2">
         <v>32</v>
@@ -4237,22 +4237,22 @@
         <v>34</v>
       </c>
       <c r="AL6" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM6" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN6" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO6" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP6" s="2">
         <v>185</v>
       </c>
       <c r="AQ6" s="2">
-        <v>1696</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7" spans="2:43">
@@ -4269,7 +4269,7 @@
         <v>624</v>
       </c>
       <c r="F7" s="3">
-        <v>35.22</v>
+        <v>42.99</v>
       </c>
       <c r="G7" s="3">
         <v>383.08</v>
@@ -4397,7 +4397,7 @@
         <v>625</v>
       </c>
       <c r="F8" s="3">
-        <v>57.09</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3">
         <v>304.2</v>
@@ -4525,7 +4525,7 @@
         <v>623</v>
       </c>
       <c r="F9" s="3">
-        <v>63.4</v>
+        <v>59.11</v>
       </c>
       <c r="G9" s="3">
         <v>300.85</v>
@@ -4850,7 +4850,7 @@
         <v>14</v>
       </c>
       <c r="AC11" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="5">
         <v>2</v>
@@ -4862,7 +4862,7 @@
         <v>16</v>
       </c>
       <c r="AG11" s="5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH11" s="2">
         <v>2</v>
@@ -4877,22 +4877,22 @@
         <v>5</v>
       </c>
       <c r="AL11" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM11" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN11" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO11" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AP11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ11" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="2:43">
@@ -4909,7 +4909,7 @@
         <v>625</v>
       </c>
       <c r="F12" s="3">
-        <v>64.78</v>
+        <v>61.3</v>
       </c>
       <c r="G12" s="3">
         <v>175.61</v>
@@ -5165,7 +5165,7 @@
         <v>627</v>
       </c>
       <c r="F14" s="3">
-        <v>53.97</v>
+        <v>50.04</v>
       </c>
       <c r="G14" s="3">
         <v>73.73999999999999</v>
@@ -5293,7 +5293,7 @@
         <v>624</v>
       </c>
       <c r="F15" s="3">
-        <v>37.76</v>
+        <v>43.28</v>
       </c>
       <c r="G15" s="3">
         <v>299.21</v>
@@ -5421,7 +5421,7 @@
         <v>626</v>
       </c>
       <c r="F16" s="3">
-        <v>55.48</v>
+        <v>50.03</v>
       </c>
       <c r="G16" s="3">
         <v>608.6799999999999</v>
@@ -5805,7 +5805,7 @@
         <v>623</v>
       </c>
       <c r="F19" s="3">
-        <v>47.41</v>
+        <v>41.11</v>
       </c>
       <c r="G19" s="3">
         <v>887.5700000000001</v>
@@ -5996,7 +5996,7 @@
         <v>-0.005133</v>
       </c>
       <c r="AA20" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB20" s="5">
         <v>154</v>
@@ -6014,7 +6014,7 @@
         <v>145</v>
       </c>
       <c r="AG20" s="5">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AH20" s="2">
         <v>193</v>
@@ -6029,22 +6029,22 @@
         <v>186</v>
       </c>
       <c r="AL20" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="AM20" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AN20" s="2">
         <v>949</v>
       </c>
       <c r="AO20" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AP20" s="2">
         <v>931</v>
       </c>
       <c r="AQ20" s="2">
-        <v>5737</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="21" spans="2:43">
@@ -6061,7 +6061,7 @@
         <v>629</v>
       </c>
       <c r="F21" s="3">
-        <v>51.54</v>
+        <v>51.14</v>
       </c>
       <c r="G21" s="3">
         <v>81.69</v>
@@ -6317,7 +6317,7 @@
         <v>626</v>
       </c>
       <c r="F23" s="3">
-        <v>41.44</v>
+        <v>40.54</v>
       </c>
       <c r="G23" s="3">
         <v>39.32</v>
@@ -6573,7 +6573,7 @@
         <v>630</v>
       </c>
       <c r="F25" s="3">
-        <v>53.32</v>
+        <v>54.42</v>
       </c>
       <c r="G25" s="3">
         <v>499.21</v>
@@ -6651,10 +6651,10 @@
         <v>181</v>
       </c>
       <c r="AF25" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG25" s="5">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AH25" s="2">
         <v>182</v>
@@ -6669,7 +6669,7 @@
         <v>200</v>
       </c>
       <c r="AL25" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="AM25" s="2">
         <v>955</v>
@@ -6681,10 +6681,10 @@
         <v>559</v>
       </c>
       <c r="AP25" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AQ25" s="2">
-        <v>5101</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="26" spans="2:43">
@@ -6829,7 +6829,7 @@
         <v>625</v>
       </c>
       <c r="F27" s="3">
-        <v>57.98</v>
+        <v>51.45</v>
       </c>
       <c r="G27" s="3">
         <v>377.72</v>
@@ -6957,7 +6957,7 @@
         <v>627</v>
       </c>
       <c r="F28" s="3">
-        <v>52.36</v>
+        <v>50.24</v>
       </c>
       <c r="G28" s="3">
         <v>61.25</v>
@@ -7085,7 +7085,7 @@
         <v>625</v>
       </c>
       <c r="F29" s="3">
-        <v>48.67</v>
+        <v>46.69</v>
       </c>
       <c r="G29" s="3">
         <v>196.46</v>
@@ -7148,7 +7148,7 @@
         <v>-0.02175</v>
       </c>
       <c r="AA29" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB29" s="5">
         <v>124</v>
@@ -7166,7 +7166,7 @@
         <v>169</v>
       </c>
       <c r="AG29" s="5">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="AH29" s="2">
         <v>207</v>
@@ -7181,22 +7181,22 @@
         <v>204</v>
       </c>
       <c r="AL29" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="AM29" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AN29" s="2">
         <v>959</v>
       </c>
       <c r="AO29" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AP29" s="2">
         <v>1002</v>
       </c>
       <c r="AQ29" s="2">
-        <v>5687</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="30" spans="2:43">
@@ -7213,7 +7213,7 @@
         <v>631</v>
       </c>
       <c r="F30" s="3">
-        <v>59.79</v>
+        <v>59</v>
       </c>
       <c r="G30" s="3">
         <v>124</v>
@@ -7341,7 +7341,7 @@
         <v>629</v>
       </c>
       <c r="F31" s="3">
-        <v>53.13</v>
+        <v>47.59</v>
       </c>
       <c r="G31" s="3">
         <v>362.82</v>
@@ -7597,7 +7597,7 @@
         <v>628</v>
       </c>
       <c r="F33" s="3">
-        <v>68.59</v>
+        <v>72.97</v>
       </c>
       <c r="G33" s="3">
         <v>471.68</v>
@@ -7853,7 +7853,7 @@
         <v>628</v>
       </c>
       <c r="F35" s="3">
-        <v>66.84</v>
+        <v>71.97</v>
       </c>
       <c r="G35" s="3">
         <v>841.67</v>
@@ -7981,7 +7981,7 @@
         <v>624</v>
       </c>
       <c r="F36" s="3">
-        <v>35.47</v>
+        <v>34.36</v>
       </c>
       <c r="G36" s="3">
         <v>239.93</v>
@@ -8109,7 +8109,7 @@
         <v>629</v>
       </c>
       <c r="F37" s="3">
-        <v>39.22</v>
+        <v>37.66</v>
       </c>
       <c r="G37" s="3">
         <v>92.73</v>
@@ -8237,7 +8237,7 @@
         <v>629</v>
       </c>
       <c r="F38" s="3">
-        <v>42.74</v>
+        <v>43.48</v>
       </c>
       <c r="G38" s="3">
         <v>123.83</v>
@@ -8365,7 +8365,7 @@
         <v>625</v>
       </c>
       <c r="F39" s="3">
-        <v>53.56</v>
+        <v>55.34</v>
       </c>
       <c r="G39" s="3">
         <v>343.47</v>
@@ -8493,7 +8493,7 @@
         <v>624</v>
       </c>
       <c r="F40" s="3">
-        <v>28.77</v>
+        <v>25.94</v>
       </c>
       <c r="G40" s="3">
         <v>61.23</v>
@@ -8621,7 +8621,7 @@
         <v>630</v>
       </c>
       <c r="F41" s="3">
-        <v>45.87</v>
+        <v>39.49</v>
       </c>
       <c r="G41" s="3">
         <v>307.32</v>
@@ -8749,7 +8749,7 @@
         <v>625</v>
       </c>
       <c r="F42" s="3">
-        <v>25.52</v>
+        <v>33.96</v>
       </c>
       <c r="G42" s="3">
         <v>200.68</v>
@@ -8877,7 +8877,7 @@
         <v>625</v>
       </c>
       <c r="F43" s="3">
-        <v>35.97</v>
+        <v>37.39</v>
       </c>
       <c r="G43" s="3">
         <v>44.3</v>
@@ -9133,7 +9133,7 @@
         <v>632</v>
       </c>
       <c r="F45" s="3">
-        <v>52.94</v>
+        <v>49.68</v>
       </c>
       <c r="G45" s="3">
         <v>117.32</v>
@@ -9261,7 +9261,7 @@
         <v>630</v>
       </c>
       <c r="F46" s="3">
-        <v>61.89</v>
+        <v>54.33</v>
       </c>
       <c r="G46" s="3">
         <v>15.8</v>
@@ -9517,7 +9517,7 @@
         <v>624</v>
       </c>
       <c r="F48" s="3">
-        <v>55.43</v>
+        <v>41.75</v>
       </c>
       <c r="G48" s="3">
         <v>122.35</v>
@@ -9645,7 +9645,7 @@
         <v>632</v>
       </c>
       <c r="F49" s="3">
-        <v>34.68</v>
+        <v>36.58</v>
       </c>
       <c r="G49" s="3">
         <v>258.66</v>
@@ -9720,13 +9720,13 @@
         <v>186</v>
       </c>
       <c r="AE49" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF49" s="5">
         <v>146</v>
       </c>
       <c r="AG49" s="5">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AH49" s="2">
         <v>170</v>
@@ -9741,22 +9741,22 @@
         <v>159</v>
       </c>
       <c r="AL49" s="2">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="AM49" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AN49" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AO49" s="2">
         <v>796</v>
       </c>
       <c r="AP49" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AQ49" s="2">
-        <v>5330</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="50" spans="2:43">
@@ -9773,7 +9773,7 @@
         <v>625</v>
       </c>
       <c r="F50" s="3">
-        <v>47.33</v>
+        <v>45.53</v>
       </c>
       <c r="G50" s="3">
         <v>1291.97</v>
@@ -9901,7 +9901,7 @@
         <v>630</v>
       </c>
       <c r="F51" s="3">
-        <v>60.97</v>
+        <v>57.7</v>
       </c>
       <c r="G51" s="3">
         <v>35.86</v>
@@ -10029,7 +10029,7 @@
         <v>630</v>
       </c>
       <c r="F52" s="3">
-        <v>66.2</v>
+        <v>55.41</v>
       </c>
       <c r="G52" s="3">
         <v>4.64</v>
@@ -10116,7 +10116,7 @@
         <v>50</v>
       </c>
       <c r="AI52" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ52" s="2">
         <v>118</v>
@@ -10125,13 +10125,13 @@
         <v>42</v>
       </c>
       <c r="AL52" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AM52" s="2">
         <v>512</v>
       </c>
       <c r="AN52" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO52" s="2">
         <v>461</v>
@@ -10140,7 +10140,7 @@
         <v>320</v>
       </c>
       <c r="AQ52" s="2">
-        <v>2439</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="53" spans="2:43">
@@ -10244,7 +10244,7 @@
         <v>107</v>
       </c>
       <c r="AI53" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ53" s="2">
         <v>132</v>
@@ -10253,13 +10253,13 @@
         <v>118</v>
       </c>
       <c r="AL53" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="AM53" s="2">
         <v>684</v>
       </c>
       <c r="AN53" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AO53" s="2">
         <v>491</v>
@@ -10268,7 +10268,7 @@
         <v>626</v>
       </c>
       <c r="AQ53" s="2">
-        <v>3594</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="54" spans="2:43">
@@ -10413,7 +10413,7 @@
         <v>623</v>
       </c>
       <c r="F55" s="3">
-        <v>19.18</v>
+        <v>21.79</v>
       </c>
       <c r="G55" s="3">
         <v>394.24</v>
@@ -10541,7 +10541,7 @@
         <v>625</v>
       </c>
       <c r="F56" s="3">
-        <v>61.65</v>
+        <v>54.22</v>
       </c>
       <c r="G56" s="3">
         <v>438.66</v>
@@ -10797,7 +10797,7 @@
         <v>625</v>
       </c>
       <c r="F58" s="3">
-        <v>22.85</v>
+        <v>29.38</v>
       </c>
       <c r="G58" s="3">
         <v>207.74</v>
@@ -10887,13 +10887,13 @@
         <v>234</v>
       </c>
       <c r="AJ58" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK58" s="2">
         <v>214</v>
       </c>
       <c r="AL58" s="2">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="AM58" s="2">
         <v>1358</v>
@@ -10902,13 +10902,13 @@
         <v>1137</v>
       </c>
       <c r="AO58" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AP58" s="2">
         <v>1054</v>
       </c>
       <c r="AQ58" s="2">
-        <v>6696</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="59" spans="2:43">
@@ -10925,7 +10925,7 @@
         <v>623</v>
       </c>
       <c r="F59" s="3">
-        <v>50.82</v>
+        <v>46.57</v>
       </c>
       <c r="G59" s="3">
         <v>233.47</v>
@@ -11309,7 +11309,7 @@
         <v>631</v>
       </c>
       <c r="F62" s="3">
-        <v>46.54</v>
+        <v>58.91</v>
       </c>
       <c r="G62" s="3">
         <v>182.59</v>
@@ -11565,7 +11565,7 @@
         <v>627</v>
       </c>
       <c r="F64" s="3">
-        <v>35.03</v>
+        <v>33.87</v>
       </c>
       <c r="G64" s="3">
         <v>105.26</v>
@@ -11949,7 +11949,7 @@
         <v>628</v>
       </c>
       <c r="F67" s="3">
-        <v>46.63</v>
+        <v>18.45</v>
       </c>
       <c r="G67" s="3">
         <v>124.46</v>
@@ -12077,7 +12077,7 @@
         <v>623</v>
       </c>
       <c r="F68" s="3">
-        <v>62.03</v>
+        <v>54.34</v>
       </c>
       <c r="G68" s="3">
         <v>157.51</v>
@@ -12205,7 +12205,7 @@
         <v>627</v>
       </c>
       <c r="F69" s="3">
-        <v>60.37</v>
+        <v>54.93</v>
       </c>
       <c r="G69" s="3">
         <v>135.75</v>
@@ -12461,7 +12461,7 @@
         <v>629</v>
       </c>
       <c r="F71" s="3">
-        <v>36.21</v>
+        <v>43.66</v>
       </c>
       <c r="G71" s="3">
         <v>59.32</v>
@@ -12589,7 +12589,7 @@
         <v>627</v>
       </c>
       <c r="F72" s="3">
-        <v>46.12</v>
+        <v>44.92</v>
       </c>
       <c r="G72" s="3">
         <v>39.51</v>
@@ -12717,7 +12717,7 @@
         <v>630</v>
       </c>
       <c r="F73" s="3">
-        <v>45.29</v>
+        <v>44.24</v>
       </c>
       <c r="G73" s="3">
         <v>16.76</v>
@@ -13357,7 +13357,7 @@
         <v>624</v>
       </c>
       <c r="F78" s="3">
-        <v>45.54</v>
+        <v>40.24</v>
       </c>
       <c r="G78" s="3">
         <v>309.79</v>
@@ -13485,7 +13485,7 @@
         <v>630</v>
       </c>
       <c r="F79" s="3">
-        <v>58.27</v>
+        <v>55.44</v>
       </c>
       <c r="G79" s="3">
         <v>574.9</v>
@@ -13613,7 +13613,7 @@
         <v>632</v>
       </c>
       <c r="F80" s="3">
-        <v>41.78</v>
+        <v>37.72</v>
       </c>
       <c r="G80" s="3">
         <v>94.37</v>
@@ -13741,7 +13741,7 @@
         <v>624</v>
       </c>
       <c r="F81" s="3">
-        <v>31.2</v>
+        <v>32.34</v>
       </c>
       <c r="G81" s="3">
         <v>145.59</v>
@@ -13869,7 +13869,7 @@
         <v>622</v>
       </c>
       <c r="F82" s="3">
-        <v>33.08</v>
+        <v>35.08</v>
       </c>
       <c r="G82" s="3">
         <v>63.76</v>
@@ -14509,7 +14509,7 @@
         <v>622</v>
       </c>
       <c r="F87" s="3">
-        <v>44.79</v>
+        <v>43.63</v>
       </c>
       <c r="G87" s="3">
         <v>26.46</v>
@@ -14637,7 +14637,7 @@
         <v>629</v>
       </c>
       <c r="F88" s="3">
-        <v>48.43</v>
+        <v>53.01</v>
       </c>
       <c r="G88" s="3">
         <v>16.16</v>
@@ -14765,7 +14765,7 @@
         <v>626</v>
       </c>
       <c r="F89" s="3">
-        <v>38.24</v>
+        <v>40.92</v>
       </c>
       <c r="G89" s="3">
         <v>150.75</v>
@@ -14893,7 +14893,7 @@
         <v>628</v>
       </c>
       <c r="F90" s="3">
-        <v>49.05</v>
+        <v>50.4</v>
       </c>
       <c r="G90" s="3">
         <v>281.87</v>
@@ -14959,7 +14959,7 @@
         <v>214</v>
       </c>
       <c r="AB90" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC90" s="5">
         <v>71</v>
@@ -14974,7 +14974,7 @@
         <v>122</v>
       </c>
       <c r="AG90" s="5">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AH90" s="2">
         <v>129</v>
@@ -14983,28 +14983,28 @@
         <v>118</v>
       </c>
       <c r="AJ90" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK90" s="2">
         <v>119</v>
       </c>
       <c r="AL90" s="2">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="AM90" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AN90" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO90" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AP90" s="2">
         <v>592</v>
       </c>
       <c r="AQ90" s="2">
-        <v>3803</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="91" spans="2:43">
@@ -15021,7 +15021,7 @@
         <v>628</v>
       </c>
       <c r="F91" s="3">
-        <v>46.06</v>
+        <v>45.45</v>
       </c>
       <c r="G91" s="3">
         <v>74.3</v>
@@ -15149,7 +15149,7 @@
         <v>622</v>
       </c>
       <c r="F92" s="3">
-        <v>46.18</v>
+        <v>45.51</v>
       </c>
       <c r="G92" s="3">
         <v>92.88</v>
@@ -15277,7 +15277,7 @@
         <v>622</v>
       </c>
       <c r="F93" s="3">
-        <v>21.13</v>
+        <v>20.06</v>
       </c>
       <c r="G93" s="3">
         <v>100.64</v>
@@ -15405,7 +15405,7 @@
         <v>629</v>
       </c>
       <c r="F94" s="3">
-        <v>57.84</v>
+        <v>50.09</v>
       </c>
       <c r="G94" s="3">
         <v>167.99</v>
@@ -15789,7 +15789,7 @@
         <v>632</v>
       </c>
       <c r="F97" s="3">
-        <v>46.08</v>
+        <v>40.28</v>
       </c>
       <c r="G97" s="3">
         <v>63.61</v>
@@ -16042,7 +16042,7 @@
         <v>622</v>
       </c>
       <c r="F99" s="3">
-        <v>53.47</v>
+        <v>51.9</v>
       </c>
       <c r="G99" s="3">
         <v>15.97</v>
@@ -16167,7 +16167,7 @@
         <v>630</v>
       </c>
       <c r="F100" s="3">
-        <v>53.37</v>
+        <v>58.29</v>
       </c>
       <c r="G100" s="3">
         <v>83.70999999999999</v>
@@ -16551,7 +16551,7 @@
         <v>623</v>
       </c>
       <c r="F103" s="3">
-        <v>75.59999999999999</v>
+        <v>64.53</v>
       </c>
       <c r="G103" s="3">
         <v>355.84</v>
@@ -16807,7 +16807,7 @@
         <v>623</v>
       </c>
       <c r="F105" s="3">
-        <v>78.06</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="G105" s="3">
         <v>175.65</v>
@@ -17063,7 +17063,7 @@
         <v>628</v>
       </c>
       <c r="F107" s="3">
-        <v>42.26</v>
+        <v>51.74</v>
       </c>
       <c r="G107" s="3">
         <v>28.02</v>
@@ -17191,7 +17191,7 @@
         <v>630</v>
       </c>
       <c r="F108" s="3">
-        <v>53.68</v>
+        <v>50.66</v>
       </c>
       <c r="G108" s="3">
         <v>73.3</v>
@@ -17319,7 +17319,7 @@
         <v>628</v>
       </c>
       <c r="F109" s="3">
-        <v>42.08</v>
+        <v>52.88</v>
       </c>
       <c r="G109" s="3">
         <v>241.85</v>
@@ -17665,13 +17665,13 @@
         <v>156</v>
       </c>
       <c r="AJ111" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK111" s="2">
         <v>158</v>
       </c>
       <c r="AL111" s="2">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AM111" s="2">
         <v>870</v>
@@ -17680,13 +17680,13 @@
         <v>755</v>
       </c>
       <c r="AO111" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AP111" s="2">
         <v>789</v>
       </c>
       <c r="AQ111" s="2">
-        <v>4422</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="112" spans="2:43">
@@ -17831,7 +17831,7 @@
         <v>627</v>
       </c>
       <c r="F113" s="3">
-        <v>39.41</v>
+        <v>35.76</v>
       </c>
       <c r="G113" s="3">
         <v>37.26</v>
@@ -18087,7 +18087,7 @@
         <v>627</v>
       </c>
       <c r="F115" s="3">
-        <v>48.74</v>
+        <v>45.92</v>
       </c>
       <c r="G115" s="3">
         <v>914.4299999999999</v>
@@ -18343,7 +18343,7 @@
         <v>632</v>
       </c>
       <c r="F117" s="3">
-        <v>51.8</v>
+        <v>44.63</v>
       </c>
       <c r="G117" s="3">
         <v>41.1</v>
@@ -18471,7 +18471,7 @@
         <v>624</v>
       </c>
       <c r="F118" s="3">
-        <v>27.21</v>
+        <v>31.44</v>
       </c>
       <c r="G118" s="3">
         <v>7146.03</v>
@@ -18727,7 +18727,7 @@
         <v>625</v>
       </c>
       <c r="F120" s="3">
-        <v>32.03</v>
+        <v>40.73</v>
       </c>
       <c r="G120" s="3">
         <v>79.95999999999999</v>
@@ -18983,7 +18983,7 @@
         <v>625</v>
       </c>
       <c r="F122" s="3">
-        <v>30.43</v>
+        <v>35.74</v>
       </c>
       <c r="G122" s="3">
         <v>98.69</v>
@@ -19111,7 +19111,7 @@
         <v>628</v>
       </c>
       <c r="F123" s="3">
-        <v>49.82</v>
+        <v>56.2</v>
       </c>
       <c r="G123" s="3">
         <v>207.73</v>
@@ -19367,7 +19367,7 @@
         <v>624</v>
       </c>
       <c r="F125" s="3">
-        <v>34.83</v>
+        <v>38.31</v>
       </c>
       <c r="G125" s="3">
         <v>80.11</v>
@@ -19495,7 +19495,7 @@
         <v>622</v>
       </c>
       <c r="F126" s="3">
-        <v>40.27</v>
+        <v>38.82</v>
       </c>
       <c r="G126" s="3">
         <v>73.39</v>
@@ -19623,7 +19623,7 @@
         <v>623</v>
       </c>
       <c r="F127" s="3">
-        <v>68.87</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="G127" s="3">
         <v>459.6</v>
@@ -19751,7 +19751,7 @@
         <v>623</v>
       </c>
       <c r="F128" s="3">
-        <v>45.96</v>
+        <v>33.05</v>
       </c>
       <c r="G128" s="3">
         <v>227.17</v>
@@ -19879,7 +19879,7 @@
         <v>630</v>
       </c>
       <c r="F129" s="3">
-        <v>41.16</v>
+        <v>43.83</v>
       </c>
       <c r="G129" s="3">
         <v>31.26</v>
@@ -20007,7 +20007,7 @@
         <v>623</v>
       </c>
       <c r="F130" s="3">
-        <v>54.77</v>
+        <v>56.29</v>
       </c>
       <c r="G130" s="3">
         <v>50.34</v>
@@ -20097,13 +20097,13 @@
         <v>187</v>
       </c>
       <c r="AJ130" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK130" s="2">
         <v>205</v>
       </c>
       <c r="AL130" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AM130" s="2">
         <v>899</v>
@@ -20112,13 +20112,13 @@
         <v>852</v>
       </c>
       <c r="AO130" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP130" s="2">
         <v>953</v>
       </c>
       <c r="AQ130" s="2">
-        <v>4684</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="131" spans="2:43">
@@ -20263,7 +20263,7 @@
         <v>626</v>
       </c>
       <c r="F132" s="3">
-        <v>67.95</v>
+        <v>62.07</v>
       </c>
       <c r="G132" s="3">
         <v>106.1</v>
@@ -20454,7 +20454,7 @@
         <v>0.245667</v>
       </c>
       <c r="AA133" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB133" s="5">
         <v>108</v>
@@ -20472,7 +20472,7 @@
         <v>45</v>
       </c>
       <c r="AG133" s="5">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AH133" s="2">
         <v>63</v>
@@ -20481,28 +20481,28 @@
         <v>62</v>
       </c>
       <c r="AJ133" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK133" s="2">
         <v>53</v>
       </c>
       <c r="AL133" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="AM133" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN133" s="2">
         <v>452</v>
       </c>
       <c r="AO133" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AP133" s="2">
         <v>380</v>
       </c>
       <c r="AQ133" s="2">
-        <v>2870</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="134" spans="2:43">
@@ -20519,7 +20519,7 @@
         <v>625</v>
       </c>
       <c r="F134" s="3">
-        <v>46.38</v>
+        <v>42.11</v>
       </c>
       <c r="G134" s="3">
         <v>195.51</v>
@@ -20647,7 +20647,7 @@
         <v>626</v>
       </c>
       <c r="F135" s="3">
-        <v>44.36</v>
+        <v>43.54</v>
       </c>
       <c r="G135" s="3">
         <v>187.35</v>
@@ -20772,7 +20772,7 @@
         <v>628</v>
       </c>
       <c r="F136" s="3">
-        <v>50.7</v>
+        <v>45.44</v>
       </c>
       <c r="G136" s="3">
         <v>84.48999999999999</v>
@@ -20900,7 +20900,7 @@
         <v>628</v>
       </c>
       <c r="F137" s="3">
-        <v>44.94</v>
+        <v>27.76</v>
       </c>
       <c r="G137" s="3">
         <v>24.29</v>
@@ -20990,13 +20990,13 @@
         <v>186</v>
       </c>
       <c r="AJ137" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK137" s="2">
         <v>142</v>
       </c>
       <c r="AL137" s="2">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="AM137" s="2">
         <v>1272</v>
@@ -21005,13 +21005,13 @@
         <v>969</v>
       </c>
       <c r="AO137" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AP137" s="2">
         <v>775</v>
       </c>
       <c r="AQ137" s="2">
-        <v>5920</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="138" spans="2:43">
@@ -21028,7 +21028,7 @@
         <v>626</v>
       </c>
       <c r="F138" s="3">
-        <v>35.72</v>
+        <v>37.87</v>
       </c>
       <c r="G138" s="3">
         <v>73.54000000000001</v>
@@ -21156,7 +21156,7 @@
         <v>631</v>
       </c>
       <c r="F139" s="3">
-        <v>46.2</v>
+        <v>45.21</v>
       </c>
       <c r="G139" s="3">
         <v>299.04</v>
@@ -21481,7 +21481,7 @@
         <v>200</v>
       </c>
       <c r="AC141" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD141" s="5">
         <v>136</v>
@@ -21493,7 +21493,7 @@
         <v>151</v>
       </c>
       <c r="AG141" s="5">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AH141" s="2">
         <v>152</v>
@@ -21508,22 +21508,22 @@
         <v>144</v>
       </c>
       <c r="AL141" s="2">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AM141" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AN141" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AO141" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AP141" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AQ141" s="2">
-        <v>4598</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="142" spans="2:43">
@@ -21540,7 +21540,7 @@
         <v>625</v>
       </c>
       <c r="F142" s="3">
-        <v>44.12</v>
+        <v>45.5</v>
       </c>
       <c r="G142" s="3">
         <v>81.68000000000001</v>
@@ -21668,7 +21668,7 @@
         <v>630</v>
       </c>
       <c r="F143" s="3">
-        <v>36.32</v>
+        <v>60.07</v>
       </c>
       <c r="G143" s="3">
         <v>78.2</v>
@@ -21924,7 +21924,7 @@
         <v>625</v>
       </c>
       <c r="F145" s="3">
-        <v>52.93</v>
+        <v>52.13</v>
       </c>
       <c r="G145" s="3">
         <v>167.86</v>
@@ -21990,7 +21990,7 @@
         <v>75</v>
       </c>
       <c r="AB145" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC145" s="5">
         <v>117</v>
@@ -22005,7 +22005,7 @@
         <v>260</v>
       </c>
       <c r="AG145" s="5">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AH145" s="2">
         <v>209</v>
@@ -22020,22 +22020,22 @@
         <v>244</v>
       </c>
       <c r="AL145" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AM145" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AN145" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AO145" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP145" s="2">
         <v>1102</v>
       </c>
       <c r="AQ145" s="2">
-        <v>5190</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="146" spans="2:43">
@@ -22180,7 +22180,7 @@
         <v>625</v>
       </c>
       <c r="F147" s="3">
-        <v>75.12</v>
+        <v>66.47</v>
       </c>
       <c r="G147" s="3">
         <v>252.12</v>
@@ -22308,7 +22308,7 @@
         <v>625</v>
       </c>
       <c r="F148" s="3">
-        <v>72.88</v>
+        <v>69</v>
       </c>
       <c r="G148" s="3">
         <v>107.26</v>
@@ -22436,7 +22436,7 @@
         <v>628</v>
       </c>
       <c r="F149" s="3">
-        <v>30.76</v>
+        <v>34.37</v>
       </c>
       <c r="G149" s="3">
         <v>68.59</v>
@@ -22561,7 +22561,7 @@
         <v>628</v>
       </c>
       <c r="F150" s="3">
-        <v>62.11</v>
+        <v>60.23</v>
       </c>
       <c r="G150" s="3">
         <v>61.37</v>
@@ -23073,7 +23073,7 @@
         <v>630</v>
       </c>
       <c r="F154" s="3">
-        <v>55.31</v>
+        <v>50.71</v>
       </c>
       <c r="G154" s="3">
         <v>23.24</v>
@@ -23329,7 +23329,7 @@
         <v>623</v>
       </c>
       <c r="F156" s="3">
-        <v>59.52</v>
+        <v>48.22</v>
       </c>
       <c r="G156" s="3">
         <v>192.67</v>
@@ -23341,25 +23341,25 @@
         <v>-0.0605</v>
       </c>
       <c r="J156" s="4">
-        <v>-0.0403</v>
+        <v>-0.0391</v>
       </c>
       <c r="K156" s="4">
-        <v>0.0483</v>
+        <v>0.0496</v>
       </c>
       <c r="L156" s="4">
-        <v>-0.2295</v>
+        <v>-0.2285</v>
       </c>
       <c r="M156" s="4">
-        <v>-0.3105</v>
+        <v>-0.3097</v>
       </c>
       <c r="N156" s="4">
-        <v>-0.1826</v>
+        <v>-0.1817</v>
       </c>
       <c r="O156" s="4">
-        <v>-0.3494</v>
+        <v>-0.3486</v>
       </c>
       <c r="P156" s="4">
-        <v>0.3341</v>
+        <v>0.3346</v>
       </c>
       <c r="Q156" s="4" t="s">
         <v>633</v>
@@ -23368,7 +23368,7 @@
         <v>633</v>
       </c>
       <c r="S156" s="4">
-        <v>1.374462</v>
+        <v>1.377132</v>
       </c>
       <c r="T156" s="4" t="s">
         <v>633</v>
@@ -23377,25 +23377,25 @@
         <v>633</v>
       </c>
       <c r="V156" s="4">
-        <v>-0.14292</v>
+        <v>-0.14188</v>
       </c>
       <c r="W156" s="4">
-        <v>-0.168575</v>
+        <v>-0.167575</v>
       </c>
       <c r="X156" s="4">
-        <v>-0.073833</v>
+        <v>-0.072667</v>
       </c>
       <c r="Y156" s="4">
-        <v>-0.268</v>
+        <v>-0.267125</v>
       </c>
       <c r="Z156" s="4">
-        <v>-0.177333</v>
+        <v>-0.176333</v>
       </c>
       <c r="AA156" s="5">
         <v>202</v>
       </c>
       <c r="AB156" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC156" s="5">
         <v>296</v>
@@ -23410,37 +23410,37 @@
         <v>287</v>
       </c>
       <c r="AG156" s="5">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="AH156" s="2">
         <v>279</v>
       </c>
       <c r="AI156" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ156" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK156" s="2">
         <v>288</v>
       </c>
       <c r="AL156" s="2">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="AM156" s="2">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AN156" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AO156" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AP156" s="2">
         <v>1417</v>
       </c>
       <c r="AQ156" s="2">
-        <v>7222</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="157" spans="2:43">
@@ -23582,7 +23582,7 @@
         <v>630</v>
       </c>
       <c r="F158" s="3">
-        <v>29.99</v>
+        <v>30</v>
       </c>
       <c r="G158" s="3">
         <v>264.58</v>
@@ -23838,7 +23838,7 @@
         <v>632</v>
       </c>
       <c r="F160" s="3">
-        <v>34.8</v>
+        <v>32.71</v>
       </c>
       <c r="G160" s="3">
         <v>54.9</v>
@@ -23966,7 +23966,7 @@
         <v>622</v>
       </c>
       <c r="F161" s="3">
-        <v>39.22</v>
+        <v>36.4</v>
       </c>
       <c r="G161" s="3">
         <v>17.31</v>
@@ -24094,7 +24094,7 @@
         <v>626</v>
       </c>
       <c r="F162" s="3">
-        <v>63.91</v>
+        <v>67.36</v>
       </c>
       <c r="G162" s="3">
         <v>37.77</v>
@@ -24160,7 +24160,7 @@
         <v>80</v>
       </c>
       <c r="AB162" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC162" s="5">
         <v>140</v>
@@ -24175,7 +24175,7 @@
         <v>149</v>
       </c>
       <c r="AG162" s="5">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AH162" s="2">
         <v>149</v>
@@ -24190,22 +24190,22 @@
         <v>157</v>
       </c>
       <c r="AL162" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AM162" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AN162" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AO162" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP162" s="2">
         <v>770</v>
       </c>
       <c r="AQ162" s="2">
-        <v>4086</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="163" spans="2:43">
@@ -24478,7 +24478,7 @@
         <v>625</v>
       </c>
       <c r="F165" s="3">
-        <v>36.99</v>
+        <v>33.04</v>
       </c>
       <c r="G165" s="3">
         <v>156.59</v>
@@ -24862,7 +24862,7 @@
         <v>625</v>
       </c>
       <c r="F168" s="3">
-        <v>41.96</v>
+        <v>40.37</v>
       </c>
       <c r="G168" s="3">
         <v>135.2</v>
@@ -25243,7 +25243,7 @@
         <v>624</v>
       </c>
       <c r="F171" s="3">
-        <v>44.87</v>
+        <v>43.27</v>
       </c>
       <c r="G171" s="3">
         <v>31.87</v>
@@ -25371,7 +25371,7 @@
         <v>622</v>
       </c>
       <c r="F172" s="3">
-        <v>50.5</v>
+        <v>47.28</v>
       </c>
       <c r="G172" s="3">
         <v>62.01</v>
@@ -25499,7 +25499,7 @@
         <v>622</v>
       </c>
       <c r="F173" s="3">
-        <v>29.59</v>
+        <v>34.52</v>
       </c>
       <c r="G173" s="3">
         <v>43.67</v>
@@ -25571,7 +25571,7 @@
         <v>243</v>
       </c>
       <c r="AD173" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AE173" s="5">
         <v>263</v>
@@ -25580,7 +25580,7 @@
         <v>253</v>
       </c>
       <c r="AG173" s="5">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AH173" s="2">
         <v>273</v>
@@ -25595,22 +25595,22 @@
         <v>269</v>
       </c>
       <c r="AL173" s="2">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="AM173" s="2">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AN173" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="AO173" s="2">
         <v>874</v>
       </c>
       <c r="AP173" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AQ173" s="2">
-        <v>7402</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="174" spans="2:43">
@@ -25714,7 +25714,7 @@
         <v>285</v>
       </c>
       <c r="AI174" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ174" s="2">
         <v>304</v>
@@ -25723,13 +25723,13 @@
         <v>268</v>
       </c>
       <c r="AL174" s="2">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="AM174" s="2">
         <v>1623</v>
       </c>
       <c r="AN174" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="AO174" s="2">
         <v>1208</v>
@@ -25738,7 +25738,7 @@
         <v>1271</v>
       </c>
       <c r="AQ174" s="2">
-        <v>8160</v>
+        <v>8162</v>
       </c>
     </row>
     <row r="175" spans="2:43">
@@ -25883,7 +25883,7 @@
         <v>628</v>
       </c>
       <c r="F176" s="3">
-        <v>30.5</v>
+        <v>33.48</v>
       </c>
       <c r="G176" s="3">
         <v>119.97</v>
@@ -26011,7 +26011,7 @@
         <v>630</v>
       </c>
       <c r="F177" s="3">
-        <v>42.49</v>
+        <v>41.14</v>
       </c>
       <c r="G177" s="3">
         <v>260.41</v>
@@ -26395,7 +26395,7 @@
         <v>623</v>
       </c>
       <c r="F180" s="3">
-        <v>60.64</v>
+        <v>53.18</v>
       </c>
       <c r="G180" s="3">
         <v>22.675</v>
@@ -26407,25 +26407,25 @@
         <v>-0.0328</v>
       </c>
       <c r="J180" s="4">
-        <v>-0.0455</v>
+        <v>-0.0453</v>
       </c>
       <c r="K180" s="4">
-        <v>0.1167</v>
+        <v>0.117</v>
       </c>
       <c r="L180" s="4">
-        <v>0.3242</v>
+        <v>0.3245</v>
       </c>
       <c r="M180" s="4">
-        <v>0.1438</v>
+        <v>0.144</v>
       </c>
       <c r="N180" s="4">
-        <v>-0.1892</v>
+        <v>-0.189</v>
       </c>
       <c r="O180" s="4">
-        <v>-0.1487</v>
+        <v>-0.1485</v>
       </c>
       <c r="P180" s="4">
-        <v>0.0344</v>
+        <v>0.0345</v>
       </c>
       <c r="Q180" s="4" t="s">
         <v>633</v>
@@ -26434,7 +26434,7 @@
         <v>633</v>
       </c>
       <c r="S180" s="4">
-        <v>0.106791</v>
+        <v>0.107112</v>
       </c>
       <c r="T180" s="4" t="s">
         <v>633</v>
@@ -26443,19 +26443,19 @@
         <v>633</v>
       </c>
       <c r="V180" s="4">
-        <v>0.07000000000000001</v>
+        <v>0.07024</v>
       </c>
       <c r="W180" s="4">
-        <v>0.09887499999999999</v>
+        <v>0.09912499999999999</v>
       </c>
       <c r="X180" s="4">
-        <v>0.1318</v>
+        <v>0.132067</v>
       </c>
       <c r="Y180" s="4">
-        <v>0.032525</v>
+        <v>0.03275</v>
       </c>
       <c r="Z180" s="4">
-        <v>0.03355</v>
+        <v>0.033783</v>
       </c>
       <c r="AA180" s="5">
         <v>220</v>
@@ -26482,7 +26482,7 @@
         <v>119</v>
       </c>
       <c r="AI180" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ180" s="2">
         <v>29</v>
@@ -26491,13 +26491,13 @@
         <v>170</v>
       </c>
       <c r="AL180" s="2">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AM180" s="2">
         <v>770</v>
       </c>
       <c r="AN180" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AO180" s="2">
         <v>298</v>
@@ -26506,7 +26506,7 @@
         <v>811</v>
       </c>
       <c r="AQ180" s="2">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="181" spans="2:43">
@@ -26523,7 +26523,7 @@
         <v>630</v>
       </c>
       <c r="F181" s="3">
-        <v>57.64</v>
+        <v>53.94</v>
       </c>
       <c r="G181" s="3">
         <v>26.47</v>
@@ -26535,22 +26535,22 @@
         <v>-0.0171</v>
       </c>
       <c r="J181" s="4">
-        <v>-0.0142</v>
+        <v>-0.0138</v>
       </c>
       <c r="K181" s="4">
-        <v>0.0019</v>
+        <v>0.0023</v>
       </c>
       <c r="L181" s="4">
-        <v>0.123</v>
+        <v>0.1234</v>
       </c>
       <c r="M181" s="4">
-        <v>0.1493</v>
+        <v>0.1497</v>
       </c>
       <c r="N181" s="4">
-        <v>0.0218</v>
+        <v>0.0222</v>
       </c>
       <c r="O181" s="4">
-        <v>0.005699999999999999</v>
+        <v>0.0061</v>
       </c>
       <c r="P181" s="4" t="s">
         <v>633</v>
@@ -26571,28 +26571,28 @@
         <v>633</v>
       </c>
       <c r="V181" s="4">
-        <v>0.05636</v>
+        <v>0.05676</v>
       </c>
       <c r="W181" s="4">
-        <v>0.07400000000000001</v>
+        <v>0.07440000000000001</v>
       </c>
       <c r="X181" s="4">
-        <v>0.0369</v>
+        <v>0.0373</v>
       </c>
       <c r="Y181" s="4">
-        <v>0.07495</v>
+        <v>0.07535</v>
       </c>
       <c r="Z181" s="4">
-        <v>0.04791699999999999</v>
+        <v>0.048317</v>
       </c>
       <c r="AA181" s="5">
         <v>134</v>
       </c>
       <c r="AB181" s="5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AC181" s="5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD181" s="5">
         <v>125</v>
@@ -26604,7 +26604,7 @@
         <v>179</v>
       </c>
       <c r="AG181" s="5">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AH181" s="2">
         <v>130</v>
@@ -26619,22 +26619,22 @@
         <v>141</v>
       </c>
       <c r="AL181" s="2">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="AM181" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AN181" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AO181" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AP181" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AQ181" s="2">
-        <v>3798</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="182" spans="2:43">
@@ -26779,7 +26779,7 @@
         <v>628</v>
       </c>
       <c r="F183" s="3">
-        <v>36.29</v>
+        <v>35.75</v>
       </c>
       <c r="G183" s="3">
         <v>11.58</v>
@@ -26907,7 +26907,7 @@
         <v>628</v>
       </c>
       <c r="F184" s="3">
-        <v>25.21</v>
+        <v>30.71</v>
       </c>
       <c r="G184" s="3">
         <v>151.69</v>
@@ -27163,7 +27163,7 @@
         <v>626</v>
       </c>
       <c r="F186" s="3">
-        <v>44.77</v>
+        <v>42.31</v>
       </c>
       <c r="G186" s="3">
         <v>45.87</v>
@@ -27175,61 +27175,61 @@
         <v>-0.0129</v>
       </c>
       <c r="J186" s="4">
-        <v>-0.07339999999999999</v>
+        <v>-0.0722</v>
       </c>
       <c r="K186" s="4">
-        <v>-0.0077</v>
+        <v>-0.0064</v>
       </c>
       <c r="L186" s="4">
-        <v>0.1704</v>
+        <v>0.172</v>
       </c>
       <c r="M186" s="4">
-        <v>0.4559</v>
+        <v>0.4578</v>
       </c>
       <c r="N186" s="4">
-        <v>1.0852</v>
+        <v>1.0879</v>
       </c>
       <c r="O186" s="4">
-        <v>0.9401</v>
+        <v>0.9426000000000001</v>
       </c>
       <c r="P186" s="4">
-        <v>0.6403</v>
+        <v>0.6409999999999999</v>
       </c>
       <c r="Q186" s="4">
-        <v>0.1732</v>
+        <v>0.1735</v>
       </c>
       <c r="R186" s="4">
-        <v>0.0385</v>
+        <v>0.0387</v>
       </c>
       <c r="S186" s="4">
-        <v>3.413365</v>
+        <v>3.419018</v>
       </c>
       <c r="T186" s="4">
-        <v>1.222595</v>
+        <v>1.225438</v>
       </c>
       <c r="U186" s="4">
-        <v>0.459033</v>
+        <v>0.461845</v>
       </c>
       <c r="V186" s="4">
-        <v>0.32608</v>
+        <v>0.3278199999999999</v>
       </c>
       <c r="W186" s="4">
-        <v>0.42595</v>
+        <v>0.427825</v>
       </c>
       <c r="X186" s="4">
-        <v>0.029767</v>
+        <v>0.031133</v>
       </c>
       <c r="Y186" s="4">
-        <v>0.6629</v>
+        <v>0.665075</v>
       </c>
       <c r="Z186" s="4">
-        <v>0.428417</v>
+        <v>0.430283</v>
       </c>
       <c r="AA186" s="5">
         <v>262</v>
       </c>
       <c r="AB186" s="5">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AC186" s="5">
         <v>62</v>
@@ -27244,7 +27244,7 @@
         <v>20</v>
       </c>
       <c r="AG186" s="5">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AH186" s="2">
         <v>26</v>
@@ -27253,28 +27253,28 @@
         <v>24</v>
       </c>
       <c r="AJ186" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK186" s="2">
         <v>24</v>
       </c>
       <c r="AL186" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM186" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AN186" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO186" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AP186" s="2">
         <v>164</v>
       </c>
       <c r="AQ186" s="2">
-        <v>2238</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="187" spans="2:43">
@@ -27291,7 +27291,7 @@
         <v>625</v>
       </c>
       <c r="F187" s="3">
-        <v>35.49</v>
+        <v>34.6</v>
       </c>
       <c r="G187" s="3">
         <v>120.42</v>
@@ -27547,7 +27547,7 @@
         <v>625</v>
       </c>
       <c r="F189" s="3">
-        <v>54.59</v>
+        <v>47.98</v>
       </c>
       <c r="G189" s="3">
         <v>46.22</v>
@@ -27803,7 +27803,7 @@
         <v>629</v>
       </c>
       <c r="F191" s="3">
-        <v>54.24</v>
+        <v>56.95</v>
       </c>
       <c r="G191" s="3">
         <v>33.7</v>
@@ -27931,7 +27931,7 @@
         <v>632</v>
       </c>
       <c r="F192" s="3">
-        <v>47.31</v>
+        <v>46.88</v>
       </c>
       <c r="G192" s="3">
         <v>173.39</v>
@@ -28059,7 +28059,7 @@
         <v>625</v>
       </c>
       <c r="F193" s="3">
-        <v>33.97</v>
+        <v>57.55</v>
       </c>
       <c r="G193" s="3">
         <v>138.41</v>
@@ -28315,7 +28315,7 @@
         <v>625</v>
       </c>
       <c r="F195" s="3">
-        <v>44.99</v>
+        <v>40.02</v>
       </c>
       <c r="G195" s="3">
         <v>76.09</v>
@@ -28443,7 +28443,7 @@
         <v>630</v>
       </c>
       <c r="F196" s="3">
-        <v>64.16</v>
+        <v>60.64</v>
       </c>
       <c r="G196" s="3">
         <v>60.5</v>
@@ -28509,7 +28509,7 @@
         <v>36</v>
       </c>
       <c r="AB196" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC196" s="5">
         <v>105</v>
@@ -28524,7 +28524,7 @@
         <v>82</v>
       </c>
       <c r="AG196" s="5">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH196" s="2">
         <v>73</v>
@@ -28539,22 +28539,22 @@
         <v>86</v>
       </c>
       <c r="AL196" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AM196" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN196" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO196" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP196" s="2">
         <v>447</v>
       </c>
       <c r="AQ196" s="2">
-        <v>2219</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="197" spans="2:43">
@@ -28571,7 +28571,7 @@
         <v>624</v>
       </c>
       <c r="F197" s="3">
-        <v>44.91</v>
+        <v>47.3</v>
       </c>
       <c r="G197" s="3">
         <v>55.17</v>
@@ -28699,7 +28699,7 @@
         <v>630</v>
       </c>
       <c r="F198" s="3">
-        <v>52.64</v>
+        <v>55.01</v>
       </c>
       <c r="G198" s="3">
         <v>100.55</v>
@@ -28827,7 +28827,7 @@
         <v>625</v>
       </c>
       <c r="F199" s="3">
-        <v>70.66</v>
+        <v>61.05</v>
       </c>
       <c r="G199" s="3">
         <v>27.82</v>
@@ -28955,7 +28955,7 @@
         <v>625</v>
       </c>
       <c r="F200" s="3">
-        <v>44.55</v>
+        <v>39.36</v>
       </c>
       <c r="G200" s="3">
         <v>111.65</v>
@@ -29080,7 +29080,7 @@
         <v>623</v>
       </c>
       <c r="F201" s="3">
-        <v>76.33</v>
+        <v>65.86</v>
       </c>
       <c r="G201" s="3">
         <v>21.74</v>
@@ -29208,7 +29208,7 @@
         <v>630</v>
       </c>
       <c r="F202" s="3">
-        <v>49.32</v>
+        <v>48.79</v>
       </c>
       <c r="G202" s="3">
         <v>43.31</v>
@@ -29336,7 +29336,7 @@
         <v>623</v>
       </c>
       <c r="F203" s="3">
-        <v>45.64</v>
+        <v>35.17</v>
       </c>
       <c r="G203" s="3">
         <v>27.43</v>
@@ -29720,7 +29720,7 @@
         <v>629</v>
       </c>
       <c r="F206" s="3">
-        <v>58.82</v>
+        <v>64.5</v>
       </c>
       <c r="G206" s="3">
         <v>82.34</v>
@@ -29848,7 +29848,7 @@
         <v>628</v>
       </c>
       <c r="F207" s="3">
-        <v>45.56</v>
+        <v>44.92</v>
       </c>
       <c r="G207" s="3">
         <v>32.06</v>
@@ -29860,67 +29860,67 @@
         <v>-0.0028</v>
       </c>
       <c r="J207" s="4">
-        <v>-0.016</v>
+        <v>-0.0157</v>
       </c>
       <c r="K207" s="4">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="L207" s="4">
-        <v>-0.1664</v>
+        <v>-0.1662</v>
       </c>
       <c r="M207" s="4">
-        <v>-0.0338</v>
+        <v>-0.0335</v>
       </c>
       <c r="N207" s="4">
-        <v>-0.0151</v>
+        <v>-0.0148</v>
       </c>
       <c r="O207" s="4">
-        <v>-0.2651</v>
+        <v>-0.2648</v>
       </c>
       <c r="P207" s="4">
-        <v>-0.1454</v>
+        <v>-0.1453</v>
       </c>
       <c r="Q207" s="4">
-        <v>0.0262</v>
+        <v>0.0263</v>
       </c>
       <c r="R207" s="4" t="s">
         <v>633</v>
       </c>
       <c r="S207" s="4">
-        <v>-0.37585</v>
+        <v>-0.375631</v>
       </c>
       <c r="T207" s="4">
-        <v>0.138047</v>
+        <v>0.138601</v>
       </c>
       <c r="U207" s="4" t="s">
         <v>633</v>
       </c>
       <c r="V207" s="4">
-        <v>-0.04632</v>
+        <v>-0.04604</v>
       </c>
       <c r="W207" s="4">
-        <v>-0.0539</v>
+        <v>-0.053625</v>
       </c>
       <c r="X207" s="4">
-        <v>-0.0609</v>
+        <v>-0.060633</v>
       </c>
       <c r="Y207" s="4">
-        <v>-0.1201</v>
+        <v>-0.119825</v>
       </c>
       <c r="Z207" s="4">
-        <v>-0.082783</v>
+        <v>-0.0825</v>
       </c>
       <c r="AA207" s="5">
         <v>141</v>
       </c>
       <c r="AB207" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC207" s="5">
         <v>282</v>
       </c>
       <c r="AD207" s="5">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE207" s="5">
         <v>190</v>
@@ -29929,7 +29929,7 @@
         <v>272</v>
       </c>
       <c r="AG207" s="5">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AH207" s="2">
         <v>223</v>
@@ -29944,22 +29944,22 @@
         <v>252</v>
       </c>
       <c r="AL207" s="2">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="AM207" s="2">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AN207" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AO207" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AP207" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AQ207" s="2">
-        <v>6361</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="208" spans="2:43">
@@ -30104,7 +30104,7 @@
         <v>632</v>
       </c>
       <c r="F209" s="3">
-        <v>34.15</v>
+        <v>31</v>
       </c>
       <c r="G209" s="3">
         <v>30.84</v>
@@ -30360,7 +30360,7 @@
         <v>630</v>
       </c>
       <c r="F211" s="3">
-        <v>33.31</v>
+        <v>45.02</v>
       </c>
       <c r="G211" s="3">
         <v>60.59</v>
@@ -30488,7 +30488,7 @@
         <v>623</v>
       </c>
       <c r="F212" s="3">
-        <v>32.92</v>
+        <v>32.12</v>
       </c>
       <c r="G212" s="3">
         <v>37.61</v>
@@ -30616,7 +30616,7 @@
         <v>625</v>
       </c>
       <c r="F213" s="3">
-        <v>29.44</v>
+        <v>26.16</v>
       </c>
       <c r="G213" s="3">
         <v>152.11</v>
@@ -30872,7 +30872,7 @@
         <v>625</v>
       </c>
       <c r="F215" s="3">
-        <v>35.12</v>
+        <v>39.69</v>
       </c>
       <c r="G215" s="3">
         <v>42.4</v>
@@ -31194,7 +31194,7 @@
         <v>111</v>
       </c>
       <c r="AB217" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC217" s="5">
         <v>224</v>
@@ -31209,7 +31209,7 @@
         <v>267</v>
       </c>
       <c r="AG217" s="5">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AH217" s="2">
         <v>235</v>
@@ -31224,22 +31224,22 @@
         <v>262</v>
       </c>
       <c r="AL217" s="2">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AM217" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AN217" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AO217" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AP217" s="2">
         <v>1243</v>
       </c>
       <c r="AQ217" s="2">
-        <v>6307</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="218" spans="2:43">
@@ -31256,7 +31256,7 @@
         <v>626</v>
       </c>
       <c r="F218" s="3">
-        <v>44.08</v>
+        <v>48.31</v>
       </c>
       <c r="G218" s="3">
         <v>219.74</v>
@@ -31512,7 +31512,7 @@
         <v>624</v>
       </c>
       <c r="F220" s="3">
-        <v>47.78</v>
+        <v>39.43</v>
       </c>
       <c r="G220" s="3">
         <v>141.91</v>
@@ -31640,7 +31640,7 @@
         <v>623</v>
       </c>
       <c r="F221" s="3">
-        <v>42.28</v>
+        <v>39.28</v>
       </c>
       <c r="G221" s="3">
         <v>148.03</v>
@@ -31768,7 +31768,7 @@
         <v>624</v>
       </c>
       <c r="F222" s="3">
-        <v>18.45</v>
+        <v>42.6</v>
       </c>
       <c r="G222" s="3">
         <v>17.05</v>
@@ -31896,7 +31896,7 @@
         <v>625</v>
       </c>
       <c r="F223" s="3">
-        <v>68.42</v>
+        <v>63.73</v>
       </c>
       <c r="G223" s="3">
         <v>100.29</v>
@@ -32277,7 +32277,7 @@
         <v>631</v>
       </c>
       <c r="F226" s="3">
-        <v>41.76</v>
+        <v>40.54</v>
       </c>
       <c r="G226" s="3">
         <v>78.06</v>
@@ -32530,7 +32530,7 @@
         <v>630</v>
       </c>
       <c r="F228" s="3">
-        <v>40.36</v>
+        <v>41.14</v>
       </c>
       <c r="G228" s="3">
         <v>48.46</v>
@@ -32658,7 +32658,7 @@
         <v>630</v>
       </c>
       <c r="F229" s="3">
-        <v>42.85</v>
+        <v>39</v>
       </c>
       <c r="G229" s="3">
         <v>11.02</v>
@@ -32849,7 +32849,7 @@
         <v>0.471717</v>
       </c>
       <c r="AA230" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB230" s="5">
         <v>249</v>
@@ -32867,7 +32867,7 @@
         <v>13</v>
       </c>
       <c r="AG230" s="5">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AH230" s="2">
         <v>29</v>
@@ -32882,22 +32882,22 @@
         <v>22</v>
       </c>
       <c r="AL230" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AM230" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN230" s="2">
         <v>365</v>
       </c>
       <c r="AO230" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP230" s="2">
         <v>124</v>
       </c>
       <c r="AQ230" s="2">
-        <v>2169</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="231" spans="2:43">
@@ -32914,7 +32914,7 @@
         <v>622</v>
       </c>
       <c r="F231" s="3">
-        <v>47.94</v>
+        <v>47.32</v>
       </c>
       <c r="G231" s="3">
         <v>1033.19</v>
@@ -33042,7 +33042,7 @@
         <v>623</v>
       </c>
       <c r="F232" s="3">
-        <v>51.75</v>
+        <v>45.87</v>
       </c>
       <c r="G232" s="3">
         <v>30.85</v>
@@ -33298,7 +33298,7 @@
         <v>631</v>
       </c>
       <c r="F234" s="3">
-        <v>48.59</v>
+        <v>53.62</v>
       </c>
       <c r="G234" s="3">
         <v>17.7</v>
@@ -33426,7 +33426,7 @@
         <v>625</v>
       </c>
       <c r="F235" s="3">
-        <v>56.55</v>
+        <v>53.8</v>
       </c>
       <c r="G235" s="3">
         <v>134.08</v>
@@ -33551,7 +33551,7 @@
         <v>625</v>
       </c>
       <c r="F236" s="3">
-        <v>35.31</v>
+        <v>32.97</v>
       </c>
       <c r="G236" s="3">
         <v>36</v>
@@ -33935,7 +33935,7 @@
         <v>628</v>
       </c>
       <c r="F239" s="3">
-        <v>83.73999999999999</v>
+        <v>85.12</v>
       </c>
       <c r="G239" s="3">
         <v>31.995</v>
@@ -33944,55 +33944,55 @@
         <v>0.0256</v>
       </c>
       <c r="J239" s="4">
-        <v>0.2846</v>
+        <v>0.2844</v>
       </c>
       <c r="K239" s="4">
-        <v>0.3811</v>
+        <v>0.3809</v>
       </c>
       <c r="L239" s="4">
-        <v>0.508</v>
+        <v>0.5078</v>
       </c>
       <c r="M239" s="4">
-        <v>1.6711</v>
+        <v>1.6707</v>
       </c>
       <c r="N239" s="4">
-        <v>1.5744</v>
+        <v>1.574</v>
       </c>
       <c r="O239" s="4">
-        <v>2.4858</v>
+        <v>2.4853</v>
       </c>
       <c r="P239" s="4">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="Q239" s="4">
-        <v>0.3493</v>
+        <v>0.3492</v>
       </c>
       <c r="R239" s="4">
-        <v>0.0784</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="S239" s="4">
-        <v>0.610665</v>
+        <v>0.610253</v>
       </c>
       <c r="T239" s="4">
-        <v>3.47242</v>
+        <v>3.470763</v>
       </c>
       <c r="U239" s="4">
-        <v>1.127153</v>
+        <v>1.125182</v>
       </c>
       <c r="V239" s="4">
-        <v>0.88384</v>
+        <v>0.8835599999999999</v>
       </c>
       <c r="W239" s="4">
-        <v>1.03365</v>
+        <v>1.03335</v>
       </c>
       <c r="X239" s="4">
-        <v>0.391233</v>
+        <v>0.391033</v>
       </c>
       <c r="Y239" s="4">
-        <v>1.559825</v>
+        <v>1.55945</v>
       </c>
       <c r="Z239" s="4">
-        <v>1.150833</v>
+        <v>1.150517</v>
       </c>
       <c r="AA239" s="5">
         <v>2</v>
@@ -34316,7 +34316,7 @@
         <v>632</v>
       </c>
       <c r="F242" s="3">
-        <v>41.16</v>
+        <v>39.94</v>
       </c>
       <c r="G242" s="3">
         <v>91.28</v>
@@ -34697,7 +34697,7 @@
         <v>624</v>
       </c>
       <c r="F245" s="3">
-        <v>56.23</v>
+        <v>54.72</v>
       </c>
       <c r="G245" s="3">
         <v>45.81</v>
@@ -35081,7 +35081,7 @@
         <v>623</v>
       </c>
       <c r="F248" s="3">
-        <v>64.41</v>
+        <v>61.74</v>
       </c>
       <c r="G248" s="3">
         <v>11.675</v>
@@ -35093,58 +35093,58 @@
         <v>-0.0106</v>
       </c>
       <c r="J248" s="4">
-        <v>0.0382</v>
+        <v>0.0369</v>
       </c>
       <c r="K248" s="4">
-        <v>0.1213</v>
+        <v>0.1199</v>
       </c>
       <c r="L248" s="4">
-        <v>0.0977</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="M248" s="4">
-        <v>0.2989</v>
+        <v>0.2972</v>
       </c>
       <c r="N248" s="4">
-        <v>0.1123</v>
+        <v>0.1108</v>
       </c>
       <c r="O248" s="4">
-        <v>0.0354</v>
+        <v>0.0341</v>
       </c>
       <c r="P248" s="4">
-        <v>-0.2634</v>
+        <v>-0.2638</v>
       </c>
       <c r="Q248" s="4">
-        <v>-0.2137</v>
+        <v>-0.2139</v>
       </c>
       <c r="R248" s="4" t="s">
         <v>633</v>
       </c>
       <c r="S248" s="4">
-        <v>-0.600336</v>
+        <v>-0.600987</v>
       </c>
       <c r="T248" s="4">
-        <v>-0.699433</v>
+        <v>-0.699815</v>
       </c>
       <c r="U248" s="4" t="s">
         <v>633</v>
       </c>
       <c r="V248" s="4">
-        <v>0.13368</v>
+        <v>0.1322</v>
       </c>
       <c r="W248" s="4">
-        <v>0.15755</v>
+        <v>0.156025</v>
       </c>
       <c r="X248" s="4">
-        <v>0.085733</v>
+        <v>0.08433299999999999</v>
       </c>
       <c r="Y248" s="4">
-        <v>0.136075</v>
+        <v>0.134575</v>
       </c>
       <c r="Z248" s="4">
-        <v>0.1173</v>
+        <v>0.11585</v>
       </c>
       <c r="AA248" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB248" s="5">
         <v>20</v>
@@ -35156,13 +35156,13 @@
         <v>78</v>
       </c>
       <c r="AE248" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF248" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG248" s="5">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AH248" s="2">
         <v>80</v>
@@ -35177,22 +35177,22 @@
         <v>112</v>
       </c>
       <c r="AL248" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="AM248" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN248" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO248" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP248" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AQ248" s="2">
-        <v>2530</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="249" spans="2:43">
@@ -35209,7 +35209,7 @@
         <v>625</v>
       </c>
       <c r="F249" s="3">
-        <v>45.79</v>
+        <v>41.84</v>
       </c>
       <c r="G249" s="3">
         <v>63.13</v>
@@ -35334,7 +35334,7 @@
         <v>632</v>
       </c>
       <c r="F250" s="3">
-        <v>56.97</v>
+        <v>58.66</v>
       </c>
       <c r="G250" s="3">
         <v>24.15</v>
@@ -35462,7 +35462,7 @@
         <v>625</v>
       </c>
       <c r="F251" s="3">
-        <v>59.98</v>
+        <v>55.02</v>
       </c>
       <c r="G251" s="3">
         <v>16.19</v>
@@ -35528,7 +35528,7 @@
         <v>27</v>
       </c>
       <c r="AB251" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC251" s="5">
         <v>130</v>
@@ -35543,7 +35543,7 @@
         <v>180</v>
       </c>
       <c r="AG251" s="5">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AH251" s="2">
         <v>115</v>
@@ -35558,22 +35558,22 @@
         <v>146</v>
       </c>
       <c r="AL251" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="AM251" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN251" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO251" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP251" s="2">
         <v>730</v>
       </c>
       <c r="AQ251" s="2">
-        <v>3305</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="252" spans="2:43">
@@ -35590,7 +35590,7 @@
         <v>630</v>
       </c>
       <c r="F252" s="3">
-        <v>44.37</v>
+        <v>48.03</v>
       </c>
       <c r="G252" s="3">
         <v>8.529999999999999</v>
@@ -35715,7 +35715,7 @@
         <v>623</v>
       </c>
       <c r="F253" s="3">
-        <v>50.78</v>
+        <v>47.67</v>
       </c>
       <c r="G253" s="3">
         <v>16.195</v>
@@ -35727,25 +35727,25 @@
         <v>-0.017</v>
       </c>
       <c r="J253" s="4">
-        <v>-0.0276</v>
+        <v>-0.0267</v>
       </c>
       <c r="K253" s="4">
-        <v>0.008699999999999999</v>
+        <v>0.0097</v>
       </c>
       <c r="L253" s="4">
-        <v>0.0043</v>
+        <v>0.0053</v>
       </c>
       <c r="M253" s="4">
-        <v>-0.2273</v>
+        <v>-0.2266</v>
       </c>
       <c r="N253" s="4">
-        <v>-0.2831</v>
+        <v>-0.2825</v>
       </c>
       <c r="O253" s="4">
-        <v>-0.1453</v>
+        <v>-0.1445</v>
       </c>
       <c r="P253" s="4">
-        <v>0.1936</v>
+        <v>0.194</v>
       </c>
       <c r="Q253" s="4" t="s">
         <v>633</v>
@@ -35754,7 +35754,7 @@
         <v>633</v>
       </c>
       <c r="S253" s="4">
-        <v>0.700499</v>
+        <v>0.702209</v>
       </c>
       <c r="T253" s="4" t="s">
         <v>633</v>
@@ -35763,31 +35763,31 @@
         <v>633</v>
       </c>
       <c r="V253" s="4">
-        <v>-0.105</v>
+        <v>-0.10416</v>
       </c>
       <c r="W253" s="4">
-        <v>-0.12435</v>
+        <v>-0.123525</v>
       </c>
       <c r="X253" s="4">
-        <v>-0.004867</v>
+        <v>-0.0039</v>
       </c>
       <c r="Y253" s="4">
-        <v>-0.16285</v>
+        <v>-0.162075</v>
       </c>
       <c r="Z253" s="4">
-        <v>-0.111717</v>
+        <v>-0.110883</v>
       </c>
       <c r="AA253" s="5">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AB253" s="5">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC253" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD253" s="5">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AE253" s="5">
         <v>280</v>
@@ -35796,37 +35796,37 @@
         <v>231</v>
       </c>
       <c r="AG253" s="5">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="AH253" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI253" s="2">
         <v>264</v>
       </c>
       <c r="AJ253" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK253" s="2">
         <v>265</v>
       </c>
       <c r="AL253" s="2">
-        <v>2176</v>
+        <v>2165</v>
       </c>
       <c r="AM253" s="2">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="AN253" s="2">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AO253" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="AP253" s="2">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="AQ253" s="2">
-        <v>6355</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="254" spans="2:43">
@@ -35843,7 +35843,7 @@
         <v>628</v>
       </c>
       <c r="F254" s="3">
-        <v>48.31</v>
+        <v>49.36</v>
       </c>
       <c r="G254" s="3">
         <v>20.15</v>
@@ -35968,7 +35968,7 @@
         <v>625</v>
       </c>
       <c r="F255" s="3">
-        <v>45.21</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="G255" s="3">
         <v>62.72</v>
@@ -35980,25 +35980,25 @@
         <v>0.2927</v>
       </c>
       <c r="J255" s="4">
-        <v>0.2679</v>
+        <v>0.2699</v>
       </c>
       <c r="K255" s="4">
-        <v>0.2155</v>
+        <v>0.2174</v>
       </c>
       <c r="L255" s="4">
-        <v>1.022</v>
+        <v>1.0252</v>
       </c>
       <c r="M255" s="4">
-        <v>1.2541</v>
+        <v>1.2577</v>
       </c>
       <c r="N255" s="4">
-        <v>0.4679</v>
+        <v>0.4702</v>
       </c>
       <c r="O255" s="4">
-        <v>1.8386</v>
+        <v>1.8432</v>
       </c>
       <c r="P255" s="4">
-        <v>0.05429999999999999</v>
+        <v>0.0548</v>
       </c>
       <c r="Q255" s="4" t="s">
         <v>633</v>
@@ -36007,7 +36007,7 @@
         <v>633</v>
       </c>
       <c r="S255" s="4">
-        <v>0.171906</v>
+        <v>0.173574</v>
       </c>
       <c r="T255" s="4" t="s">
         <v>633</v>
@@ -36016,19 +36016,19 @@
         <v>633</v>
       </c>
       <c r="V255" s="4">
-        <v>0.6454800000000001</v>
+        <v>0.6480800000000001</v>
       </c>
       <c r="W255" s="4">
-        <v>0.7398749999999999</v>
+        <v>0.742625</v>
       </c>
       <c r="X255" s="4">
-        <v>0.5018</v>
+        <v>0.504167</v>
       </c>
       <c r="Y255" s="4">
-        <v>1.14565</v>
+        <v>1.149075</v>
       </c>
       <c r="Z255" s="4">
-        <v>0.844333</v>
+        <v>0.847267</v>
       </c>
       <c r="AA255" s="5">
         <v>3</v>
@@ -36037,7 +36037,7 @@
         <v>6</v>
       </c>
       <c r="AC255" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD255" s="5">
         <v>11</v>
@@ -36049,13 +36049,13 @@
         <v>5</v>
       </c>
       <c r="AG255" s="5">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH255" s="2">
         <v>7</v>
       </c>
       <c r="AI255" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ255" s="2">
         <v>2</v>
@@ -36064,22 +36064,22 @@
         <v>8</v>
       </c>
       <c r="AL255" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM255" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN255" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AO255" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP255" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ255" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="256" spans="2:43">
@@ -36096,7 +36096,7 @@
         <v>630</v>
       </c>
       <c r="F256" s="3">
-        <v>59.85</v>
+        <v>61.03</v>
       </c>
       <c r="G256" s="3">
         <v>54.29</v>
@@ -36608,7 +36608,7 @@
         <v>628</v>
       </c>
       <c r="F260" s="3">
-        <v>36.02</v>
+        <v>32.94</v>
       </c>
       <c r="G260" s="3">
         <v>20.19</v>
@@ -37120,7 +37120,7 @@
         <v>625</v>
       </c>
       <c r="F264" s="3">
-        <v>36.85</v>
+        <v>39.45</v>
       </c>
       <c r="G264" s="3">
         <v>53.08</v>
@@ -37248,7 +37248,7 @@
         <v>626</v>
       </c>
       <c r="F265" s="3">
-        <v>42.17</v>
+        <v>38.05</v>
       </c>
       <c r="G265" s="3">
         <v>32.01</v>
@@ -37260,25 +37260,25 @@
         <v>-0.0187</v>
       </c>
       <c r="J265" s="4">
-        <v>-0.0262</v>
+        <v>-0.0259</v>
       </c>
       <c r="K265" s="4">
-        <v>-0.07490000000000001</v>
+        <v>-0.0746</v>
       </c>
       <c r="L265" s="4">
-        <v>-0.1903</v>
+        <v>-0.19</v>
       </c>
       <c r="M265" s="4">
-        <v>-0.09369999999999999</v>
+        <v>-0.0935</v>
       </c>
       <c r="N265" s="4">
-        <v>-0.09949999999999999</v>
+        <v>-0.0992</v>
       </c>
       <c r="O265" s="4">
-        <v>-0.2143</v>
+        <v>-0.214</v>
       </c>
       <c r="P265" s="4">
-        <v>-0.0496</v>
+        <v>-0.0495</v>
       </c>
       <c r="Q265" s="4">
         <v>-0.1491</v>
@@ -37287,7 +37287,7 @@
         <v>633</v>
       </c>
       <c r="S265" s="4">
-        <v>-0.141542</v>
+        <v>-0.141271</v>
       </c>
       <c r="T265" s="4">
         <v>-0.553941</v>
@@ -37296,19 +37296,19 @@
         <v>633</v>
       </c>
       <c r="V265" s="4">
-        <v>-0.09692000000000001</v>
+        <v>-0.09664</v>
       </c>
       <c r="W265" s="4">
-        <v>-0.1146</v>
+        <v>-0.114325</v>
       </c>
       <c r="X265" s="4">
-        <v>-0.097133</v>
+        <v>-0.09683299999999999</v>
       </c>
       <c r="Y265" s="4">
-        <v>-0.14945</v>
+        <v>-0.149175</v>
       </c>
       <c r="Z265" s="4">
-        <v>-0.116483</v>
+        <v>-0.1162</v>
       </c>
       <c r="AA265" s="5">
         <v>172</v>
@@ -37376,7 +37376,7 @@
         <v>626</v>
       </c>
       <c r="F266" s="3">
-        <v>59.43</v>
+        <v>65.7</v>
       </c>
       <c r="G266" s="3">
         <v>69.45999999999999</v>
@@ -37463,7 +37463,7 @@
         <v>9</v>
       </c>
       <c r="AI266" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ266" s="2">
         <v>10</v>
@@ -37472,13 +37472,13 @@
         <v>14</v>
       </c>
       <c r="AL266" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM266" s="2">
         <v>134</v>
       </c>
       <c r="AN266" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO266" s="2">
         <v>100</v>
@@ -37487,7 +37487,7 @@
         <v>92</v>
       </c>
       <c r="AQ266" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="267" spans="2:43">
@@ -37504,7 +37504,7 @@
         <v>623</v>
       </c>
       <c r="F267" s="3">
-        <v>24.62</v>
+        <v>23.54</v>
       </c>
       <c r="G267" s="3">
         <v>39</v>
@@ -37576,7 +37576,7 @@
         <v>273</v>
       </c>
       <c r="AD267" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE267" s="5">
         <v>216</v>
@@ -37585,7 +37585,7 @@
         <v>194</v>
       </c>
       <c r="AG267" s="5">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="AH267" s="2">
         <v>282</v>
@@ -37600,22 +37600,22 @@
         <v>253</v>
       </c>
       <c r="AL267" s="2">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AM267" s="2">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AN267" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AO267" s="2">
         <v>1162</v>
       </c>
       <c r="AP267" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AQ267" s="2">
-        <v>8036</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="268" spans="2:43">
@@ -37632,7 +37632,7 @@
         <v>628</v>
       </c>
       <c r="F268" s="3">
-        <v>47.42</v>
+        <v>48.16</v>
       </c>
       <c r="G268" s="3">
         <v>50.38</v>
@@ -38016,7 +38016,7 @@
         <v>624</v>
       </c>
       <c r="F271" s="3">
-        <v>69.23999999999999</v>
+        <v>60.95</v>
       </c>
       <c r="G271" s="3">
         <v>22.525</v>
@@ -38082,7 +38082,7 @@
         <v>24</v>
       </c>
       <c r="AB271" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC271" s="5">
         <v>160</v>
@@ -38097,7 +38097,7 @@
         <v>83</v>
       </c>
       <c r="AG271" s="5">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AH271" s="2">
         <v>97</v>
@@ -38112,22 +38112,22 @@
         <v>102</v>
       </c>
       <c r="AL271" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AM271" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN271" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO271" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AP271" s="2">
         <v>565</v>
       </c>
       <c r="AQ271" s="2">
-        <v>2816</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="272" spans="2:43">
@@ -38144,7 +38144,7 @@
         <v>632</v>
       </c>
       <c r="F272" s="3">
-        <v>65.54000000000001</v>
+        <v>55.61</v>
       </c>
       <c r="G272" s="3">
         <v>170.82</v>
@@ -38272,7 +38272,7 @@
         <v>630</v>
       </c>
       <c r="F273" s="3">
-        <v>58.76</v>
+        <v>60.63</v>
       </c>
       <c r="G273" s="3">
         <v>19.04</v>
@@ -38653,7 +38653,7 @@
         <v>625</v>
       </c>
       <c r="F276" s="3">
-        <v>37.15</v>
+        <v>65.98</v>
       </c>
       <c r="G276" s="3">
         <v>6.73</v>
@@ -38665,25 +38665,25 @@
         <v>0.3613</v>
       </c>
       <c r="J276" s="4">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="K276" s="4">
-        <v>0.076</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="L276" s="4">
-        <v>0.1798</v>
+        <v>0.1807</v>
       </c>
       <c r="M276" s="4">
-        <v>0.0067</v>
+        <v>0.0075</v>
       </c>
       <c r="N276" s="4">
-        <v>0.8373999999999999</v>
+        <v>0.8388</v>
       </c>
       <c r="O276" s="4">
-        <v>1.311</v>
+        <v>1.3127</v>
       </c>
       <c r="P276" s="4">
-        <v>-0.2735</v>
+        <v>-0.2733</v>
       </c>
       <c r="Q276" s="4" t="s">
         <v>633</v>
@@ -38692,7 +38692,7 @@
         <v>633</v>
       </c>
       <c r="S276" s="4">
-        <v>-0.616552</v>
+        <v>-0.616235</v>
       </c>
       <c r="T276" s="4" t="s">
         <v>633</v>
@@ -38701,28 +38701,28 @@
         <v>633</v>
       </c>
       <c r="V276" s="4">
-        <v>0.28318</v>
+        <v>0.28416</v>
       </c>
       <c r="W276" s="4">
-        <v>0.274975</v>
+        <v>0.27595</v>
       </c>
       <c r="X276" s="4">
-        <v>0.1906</v>
+        <v>0.1915</v>
       </c>
       <c r="Y276" s="4">
-        <v>0.583725</v>
+        <v>0.584925</v>
       </c>
       <c r="Z276" s="4">
-        <v>0.454483</v>
+        <v>0.455583</v>
       </c>
       <c r="AA276" s="5">
         <v>1</v>
       </c>
       <c r="AB276" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC276" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD276" s="5">
         <v>193</v>
@@ -38734,13 +38734,13 @@
         <v>11</v>
       </c>
       <c r="AG276" s="5">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AH276" s="2">
         <v>34</v>
       </c>
       <c r="AI276" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ276" s="2">
         <v>15</v>
@@ -38749,22 +38749,22 @@
         <v>27</v>
       </c>
       <c r="AL276" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AM276" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AN276" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AO276" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AP276" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ276" s="2">
-        <v>1558</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="277" spans="2:43">
@@ -38781,7 +38781,7 @@
         <v>624</v>
       </c>
       <c r="F277" s="3">
-        <v>49.13</v>
+        <v>46.71</v>
       </c>
       <c r="G277" s="3">
         <v>43.84</v>
@@ -38906,7 +38906,7 @@
         <v>627</v>
       </c>
       <c r="F278" s="3">
-        <v>63.35</v>
+        <v>59.14</v>
       </c>
       <c r="G278" s="3">
         <v>12.86</v>
@@ -39034,7 +39034,7 @@
         <v>629</v>
       </c>
       <c r="F279" s="3">
-        <v>50.08</v>
+        <v>50.91</v>
       </c>
       <c r="G279" s="3">
         <v>11.6</v>
@@ -39228,7 +39228,7 @@
         <v>144</v>
       </c>
       <c r="AC280" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD280" s="5">
         <v>247</v>
@@ -39240,7 +39240,7 @@
         <v>273</v>
       </c>
       <c r="AG280" s="5">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AH280" s="2">
         <v>227</v>
@@ -39255,22 +39255,22 @@
         <v>254</v>
       </c>
       <c r="AL280" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AM280" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AN280" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AO280" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AP280" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AQ280" s="2">
-        <v>5729</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="281" spans="2:43">
@@ -39287,7 +39287,7 @@
         <v>629</v>
       </c>
       <c r="F281" s="3">
-        <v>46.09</v>
+        <v>41.52</v>
       </c>
       <c r="G281" s="3">
         <v>19.69</v>
@@ -39415,7 +39415,7 @@
         <v>622</v>
       </c>
       <c r="F282" s="3">
-        <v>55.9</v>
+        <v>58.86</v>
       </c>
       <c r="G282" s="3">
         <v>95.18000000000001</v>
@@ -39481,7 +39481,7 @@
         <v>21</v>
       </c>
       <c r="AB282" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC282" s="5">
         <v>65</v>
@@ -39496,7 +39496,7 @@
         <v>18</v>
       </c>
       <c r="AG282" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH282" s="2">
         <v>36</v>
@@ -39511,22 +39511,22 @@
         <v>28</v>
       </c>
       <c r="AL282" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM282" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN282" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO282" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP282" s="2">
         <v>186</v>
       </c>
       <c r="AQ282" s="2">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="283" spans="2:43">
@@ -39543,7 +39543,7 @@
         <v>628</v>
       </c>
       <c r="F283" s="3">
-        <v>22.43</v>
+        <v>21.27</v>
       </c>
       <c r="G283" s="3">
         <v>6.52</v>
@@ -39799,7 +39799,7 @@
         <v>630</v>
       </c>
       <c r="F285" s="3">
-        <v>44.22</v>
+        <v>34.5</v>
       </c>
       <c r="G285" s="3">
         <v>43.17</v>
@@ -39927,7 +39927,7 @@
         <v>627</v>
       </c>
       <c r="F286" s="3">
-        <v>65.98</v>
+        <v>57.62</v>
       </c>
       <c r="G286" s="3">
         <v>59</v>
@@ -40183,7 +40183,7 @@
         <v>623</v>
       </c>
       <c r="F288" s="3">
-        <v>30.15</v>
+        <v>28.55</v>
       </c>
       <c r="G288" s="3">
         <v>2.7</v>
@@ -40439,7 +40439,7 @@
         <v>626</v>
       </c>
       <c r="F290" s="3">
-        <v>45.25</v>
+        <v>42.87</v>
       </c>
       <c r="G290" s="3">
         <v>50.63</v>
@@ -40951,7 +40951,7 @@
         <v>625</v>
       </c>
       <c r="F294" s="3">
-        <v>68.16</v>
+        <v>61.92</v>
       </c>
       <c r="G294" s="3">
         <v>31.04</v>
@@ -41207,7 +41207,7 @@
         <v>631</v>
       </c>
       <c r="F296" s="3">
-        <v>37.47</v>
+        <v>37.35</v>
       </c>
       <c r="G296" s="3">
         <v>14.47</v>
@@ -41332,7 +41332,7 @@
         <v>632</v>
       </c>
       <c r="F297" s="3">
-        <v>71.48999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="G297" s="3">
         <v>98.06999999999999</v>
@@ -41523,7 +41523,7 @@
         <v>-0.03685</v>
       </c>
       <c r="AA298" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB298" s="5">
         <v>253</v>
@@ -41541,7 +41541,7 @@
         <v>130</v>
       </c>
       <c r="AG298" s="5">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="AH298" s="2">
         <v>232</v>
@@ -41550,28 +41550,28 @@
         <v>235</v>
       </c>
       <c r="AJ298" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK298" s="2">
         <v>202</v>
       </c>
       <c r="AL298" s="2">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="AM298" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AN298" s="2">
         <v>1164</v>
       </c>
       <c r="AO298" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AP298" s="2">
         <v>1008</v>
       </c>
       <c r="AQ298" s="2">
-        <v>6559</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="299" spans="2:43">
@@ -41588,7 +41588,7 @@
         <v>631</v>
       </c>
       <c r="F299" s="3">
-        <v>35.81</v>
+        <v>37.72</v>
       </c>
       <c r="G299" s="3">
         <v>7.47</v>
@@ -41716,7 +41716,7 @@
         <v>622</v>
       </c>
       <c r="F300" s="3">
-        <v>48.28</v>
+        <v>48.58</v>
       </c>
       <c r="G300" s="3">
         <v>18.79</v>
@@ -41972,7 +41972,7 @@
         <v>625</v>
       </c>
       <c r="F302" s="3">
-        <v>53.61</v>
+        <v>44.54</v>
       </c>
       <c r="G302" s="3">
         <v>7.39</v>
@@ -42035,7 +42035,7 @@
         <v>-0.047133</v>
       </c>
       <c r="AA302" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB302" s="5">
         <v>212</v>
@@ -42053,7 +42053,7 @@
         <v>197</v>
       </c>
       <c r="AG302" s="5">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AH302" s="2">
         <v>224</v>
@@ -42068,22 +42068,22 @@
         <v>223</v>
       </c>
       <c r="AL302" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AM302" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AN302" s="2">
         <v>1066</v>
       </c>
       <c r="AO302" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AP302" s="2">
         <v>1042</v>
       </c>
       <c r="AQ302" s="2">
-        <v>5705</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="303" spans="2:43">
@@ -42100,7 +42100,7 @@
         <v>630</v>
       </c>
       <c r="F303" s="3">
-        <v>32.43</v>
+        <v>34.08</v>
       </c>
       <c r="G303" s="3">
         <v>11.65</v>
@@ -42356,7 +42356,7 @@
         <v>627</v>
       </c>
       <c r="F305" s="3">
-        <v>23.42</v>
+        <v>21.45</v>
       </c>
       <c r="G305" s="3">
         <v>5.9</v>
@@ -42612,7 +42612,7 @@
         <v>631</v>
       </c>
       <c r="F307" s="3">
-        <v>46.51</v>
+        <v>49.06</v>
       </c>
       <c r="G307" s="3">
         <v>5.93</v>
@@ -42740,7 +42740,7 @@
         <v>627</v>
       </c>
       <c r="F308" s="3">
-        <v>60.07</v>
+        <v>42.86</v>
       </c>
       <c r="G308" s="3">
         <v>14.17</v>
@@ -42824,7 +42824,7 @@
         <v>1380</v>
       </c>
       <c r="AH308" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI308" s="2">
         <v>259</v>
@@ -42836,10 +42836,10 @@
         <v>270</v>
       </c>
       <c r="AL308" s="2">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AM308" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="AN308" s="2">
         <v>1105</v>
@@ -42851,7 +42851,7 @@
         <v>1260</v>
       </c>
       <c r="AQ308" s="2">
-        <v>6856</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="309" spans="2:43">
@@ -42868,7 +42868,7 @@
         <v>628</v>
       </c>
       <c r="F309" s="3">
-        <v>52.08</v>
+        <v>48.16</v>
       </c>
       <c r="G309" s="3">
         <v>8.15</v>
@@ -42993,7 +42993,7 @@
         <v>630</v>
       </c>
       <c r="F310" s="3">
-        <v>46.73</v>
+        <v>44.18</v>
       </c>
       <c r="G310" s="3">
         <v>9.85</v>
@@ -43121,7 +43121,7 @@
         <v>626</v>
       </c>
       <c r="F311" s="3">
-        <v>19.02</v>
+        <v>17.84</v>
       </c>
       <c r="G311" s="3">
         <v>6.59</v>
@@ -43505,7 +43505,7 @@
         <v>626</v>
       </c>
       <c r="F314" s="3">
-        <v>43.59</v>
+        <v>40.27</v>
       </c>
       <c r="G314" s="3">
         <v>6.18</v>
@@ -43674,7 +43674,7 @@
         <v>546</v>
       </c>
       <c r="C4">
-        <v>68.7025</v>
+        <v>68.67750000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -43707,7 +43707,7 @@
         <v>562</v>
       </c>
       <c r="C7">
-        <v>49.3325</v>
+        <v>49.5675</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -43839,7 +43839,7 @@
         <v>583</v>
       </c>
       <c r="C19">
-        <v>35.23</v>
+        <v>35.3325</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -44263,7 +44263,7 @@
         <v>546</v>
       </c>
       <c r="C3">
-        <v>115.0833333333333</v>
+        <v>115.0516666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -44329,7 +44329,7 @@
         <v>562</v>
       </c>
       <c r="C9">
-        <v>84.43333333333334</v>
+        <v>84.72666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -44516,7 +44516,7 @@
         <v>583</v>
       </c>
       <c r="C26">
-        <v>45.44833333333332</v>
+        <v>45.55833333333334</v>
       </c>
     </row>
   </sheetData>
